--- a/excel/devicedetail_temp.xlsx
+++ b/excel/devicedetail_temp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>订单年</t>
   </si>
@@ -505,6 +505,70 @@
       </rPr>
       <t>%&gt;</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%~rs1.fhsl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%~rs1.fhje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.khmc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +704,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +750,12 @@
     <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,9 +765,6 @@
     <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,7 +776,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 10" xfId="2"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 10" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
@@ -1009,7 +1076,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1017,7 +1084,7 @@
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="10.75" customWidth="1"/>
@@ -1028,68 +1095,77 @@
     <col min="16" max="16" width="14.625" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="12.125" customWidth="1"/>
+    <col min="22" max="22" width="12.75" customWidth="1"/>
+    <col min="23" max="23" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="21" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="15"/>
+      <c r="W1" s="19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" spans="1:31" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="13" t="s">
         <v>16</v>
       </c>
@@ -1099,8 +1175,8 @@
       <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="14"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1119,9 +1195,13 @@
       <c r="T2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="U2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="19"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
@@ -1192,9 +1272,26 @@
       <c r="T3" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="U3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="G1:G2"/>
@@ -1203,12 +1300,6 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
